--- a/Planning/KW_12.xlsx
+++ b/Planning/KW_12.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75A517C-BF34-4296-8B31-EDDD1D18FDC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A3216-5EE0-4DBF-9C96-8F16066EE9C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Task</t>
   </si>
@@ -46,22 +46,16 @@
     <t>Starting with CS</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>4h</t>
   </si>
   <si>
-    <t>Working on Music</t>
-  </si>
-  <si>
-    <t>Tischler, Trinkl</t>
-  </si>
-  <si>
-    <t>Punz</t>
-  </si>
-  <si>
-    <t>Strutzenberger</t>
+    <t>Strutzenberger, Trinkl</t>
+  </si>
+  <si>
+    <t>Tischler, Punz</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -379,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,10 +410,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -427,21 +421,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/KW_12.xlsx
+++ b/Planning/KW_12.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A3216-5EE0-4DBF-9C96-8F16066EE9C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAE10E3-0482-4CCC-BD5D-72979F321EC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -376,7 +382,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,6 +418,15 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
@@ -421,6 +436,15 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">

--- a/Planning/KW_12.xlsx
+++ b/Planning/KW_12.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAE10E3-0482-4CCC-BD5D-72979F321EC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE735B89-4097-4730-8A94-54EFAA9ED3F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,13 +439,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>

--- a/Planning/KW_12.xlsx
+++ b/Planning/KW_12.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE735B89-4097-4730-8A94-54EFAA9ED3F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BCCC99-6779-4D3D-88D5-BD5DD1ABEEBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Starting with CS</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>Strutzenberger, Trinkl</t>
   </si>
   <si>
@@ -62,6 +59,12 @@
   </si>
   <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>Fixing Music Queue</t>
+  </si>
+  <si>
+    <t>Punz</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,19 +419,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -436,19 +430,21 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/KW_12.xlsx
+++ b/Planning/KW_12.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BCCC99-6779-4D3D-88D5-BD5DD1ABEEBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C446431D-81B2-4B30-AA67-14DC116CFD8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Punz</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,6 +427,12 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
@@ -432,6 +444,15 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
@@ -442,6 +463,12 @@
       </c>
       <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
